--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-10T12:23:20+00:00</t>
+    <t>2022-05-10T21:10:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-10T21:10:25+00:00</t>
+    <t>2022-05-10T21:51:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-10T21:51:22+00:00</t>
+    <t>2022-05-10T22:13:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-10T22:13:39+00:00</t>
+    <t>2022-05-10T23:45:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-10T23:45:48+00:00</t>
+    <t>2022-05-11T06:37:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-11T06:37:05+00:00</t>
+    <t>2022-05-11T06:52:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-11T06:52:34+00:00</t>
+    <t>2022-05-11T06:59:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-11T06:59:06+00:00</t>
+    <t>2022-05-13T06:24:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-13T06:24:13+00:00</t>
+    <t>2022-05-13T07:45:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-13T07:45:08+00:00</t>
+    <t>2022-05-13T08:37:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-13T08:37:46+00:00</t>
+    <t>2022-05-13T09:09:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-13T09:09:22+00:00</t>
+    <t>2022-05-13T22:08:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-13T22:08:03+00:00</t>
+    <t>2022-05-13T23:16:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-13T23:16:51+00:00</t>
+    <t>2022-05-13T23:58:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-13T23:58:59+00:00</t>
+    <t>2022-05-14T08:12:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-14T08:12:22+00:00</t>
+    <t>2022-05-14T08:22:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-14T08:22:11+00:00</t>
+    <t>2022-05-14T11:44:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-14T11:44:41+00:00</t>
+    <t>2022-05-14T20:11:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-14T20:11:50+00:00</t>
+    <t>2022-05-14T20:22:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-14T20:22:11+00:00</t>
+    <t>2022-05-14T20:57:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-14T20:57:51+00:00</t>
+    <t>2022-05-14T21:08:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-14T21:08:10+00:00</t>
+    <t>2022-05-14T21:26:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-14T21:26:57+00:00</t>
+    <t>2022-05-14T21:49:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-14T21:49:33+00:00</t>
+    <t>2022-05-14T22:30:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-14T22:30:50+00:00</t>
+    <t>2022-05-14T23:00:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-14T23:00:37+00:00</t>
+    <t>2022-05-14T23:33:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-14T23:33:10+00:00</t>
+    <t>2022-05-15T00:46:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T00:46:54+00:00</t>
+    <t>2022-05-15T02:13:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T02:13:14+00:00</t>
+    <t>2022-05-15T03:44:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T03:44:39+00:00</t>
+    <t>2022-05-15T04:01:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T04:01:28+00:00</t>
+    <t>2022-05-15T04:22:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T04:22:03+00:00</t>
+    <t>2022-05-15T04:40:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T04:40:19+00:00</t>
+    <t>2022-05-15T04:50:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T04:50:30+00:00</t>
+    <t>2022-05-15T05:04:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T05:04:41+00:00</t>
+    <t>2022-05-15T05:59:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T05:59:51+00:00</t>
+    <t>2022-05-15T06:10:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T06:10:42+00:00</t>
+    <t>2022-05-15T06:58:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T06:58:01+00:00</t>
+    <t>2022-05-15T08:00:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T08:00:52+00:00</t>
+    <t>2022-05-15T08:35:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T08:35:02+00:00</t>
+    <t>2022-05-15T20:34:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T20:34:26+00:00</t>
+    <t>2022-05-15T21:11:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T21:11:53+00:00</t>
+    <t>2022-05-15T21:22:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T21:22:54+00:00</t>
+    <t>2022-05-15T23:31:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T23:31:21+00:00</t>
+    <t>2022-05-16T00:19:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T00:19:33+00:00</t>
+    <t>2022-05-16T00:37:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T00:37:48+00:00</t>
+    <t>2022-05-16T01:16:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T01:16:16+00:00</t>
+    <t>2022-05-16T01:43:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T01:43:18+00:00</t>
+    <t>2022-05-16T01:51:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T01:51:29+00:00</t>
+    <t>2022-05-16T02:01:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T02:01:05+00:00</t>
+    <t>2022-05-16T02:10:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T02:10:26+00:00</t>
+    <t>2022-05-16T02:20:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T02:20:03+00:00</t>
+    <t>2022-05-16T02:38:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T02:38:18+00:00</t>
+    <t>2022-05-16T06:42:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T06:42:02+00:00</t>
+    <t>2022-05-16T08:40:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T08:40:37+00:00</t>
+    <t>2022-05-16T09:08:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T09:08:52+00:00</t>
+    <t>2022-05-16T13:03:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T13:03:47+00:00</t>
+    <t>2022-05-16T13:13:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T13:13:28+00:00</t>
+    <t>2022-05-16T13:28:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T13:28:44+00:00</t>
+    <t>2022-05-16T13:35:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T13:35:07+00:00</t>
+    <t>2022-05-16T20:51:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T20:51:46+00:00</t>
+    <t>2022-05-16T21:03:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T21:03:30+00:00</t>
+    <t>2022-05-16T21:18:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T21:18:12+00:00</t>
+    <t>2022-05-16T21:46:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T21:46:46+00:00</t>
+    <t>2022-05-16T22:00:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T22:00:55+00:00</t>
+    <t>2022-05-16T22:31:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T22:31:13+00:00</t>
+    <t>2022-05-16T22:59:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T22:59:36+00:00</t>
+    <t>2022-05-17T00:01:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T00:01:29+00:00</t>
+    <t>2022-05-17T00:36:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T00:36:56+00:00</t>
+    <t>2022-05-17T01:32:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T01:32:43+00:00</t>
+    <t>2022-05-17T02:11:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T02:11:59+00:00</t>
+    <t>2022-05-17T02:27:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T02:27:04+00:00</t>
+    <t>2022-05-17T21:52:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T21:52:12+00:00</t>
+    <t>2022-05-18T09:42:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T09:42:35+00:00</t>
+    <t>2022-05-18T10:11:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T10:11:21+00:00</t>
+    <t>2022-05-18T22:24:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T22:24:04+00:00</t>
+    <t>2022-05-18T22:54:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T22:54:45+00:00</t>
+    <t>2022-05-18T23:36:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T23:36:27+00:00</t>
+    <t>2022-05-19T03:03:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T03:03:33+00:00</t>
+    <t>2022-05-19T07:15:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T07:15:49+00:00</t>
+    <t>2022-05-19T07:35:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T07:35:54+00:00</t>
+    <t>2022-05-19T07:59:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T07:59:09+00:00</t>
+    <t>2022-05-19T08:14:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T08:14:30+00:00</t>
+    <t>2022-05-19T08:29:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T08:29:28+00:00</t>
+    <t>2022-05-19T21:25:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.3</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T21:25:03+00:00</t>
+    <t>2022-05-19T22:15:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>Value Set (all codes)</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/ePrescription/ValueSet/jami-codeSystem-ePreBasicUsageMethod-OneDigit</t>
   </si>
   <si>
     <t>Hierarchy</t>
@@ -399,48 +396,46 @@
       <c r="A15" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B15" t="s" s="2">
-        <v>25</v>
-      </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>29</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -458,63 +453,63 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s" s="1">
         <v>34</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="C1" t="s" s="1">
         <v>35</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="D1" t="s" s="1">
         <v>36</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s" s="2">
         <v>38</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>39</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s" s="2">
         <v>40</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>41</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s" s="2">
         <v>42</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>43</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" s="2"/>
     </row>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T22:15:07+00:00</t>
+    <t>2022-05-19T22:22:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T22:22:45+00:00</t>
+    <t>2022-05-19T22:40:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-19T22:40:57+00:00</t>
+    <t>2022-05-20T01:59:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-20T01:59:29+00:00</t>
+    <t>2022-05-20T02:53:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-20T02:53:22+00:00</t>
+    <t>2022-05-20T03:10:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-20T03:10:08+00:00</t>
+    <t>2022-05-20T22:14:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-20T22:14:29+00:00</t>
+    <t>2022-05-21T02:00:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-21T02:00:04+00:00</t>
+    <t>2022-05-21T02:55:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-21T02:55:26+00:00</t>
+    <t>2022-05-21T04:45:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-21T04:45:59+00:00</t>
+    <t>2022-05-26T10:02:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-26T10:02:22+00:00</t>
+    <t>2022-05-26T10:25:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-26T10:25:08+00:00</t>
+    <t>2022-06-18T09:15:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-18T09:15:45+00:00</t>
+    <t>2022-06-18T22:14:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-18T22:14:23+00:00</t>
+    <t>2022-06-19T00:56:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-19T00:56:38+00:00</t>
+    <t>2022-06-25T22:06:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-25T22:06:20+00:00</t>
+    <t>2022-06-26T00:19:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-26T00:19:47+00:00</t>
+    <t>2022-06-26T03:25:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-26T03:25:27+00:00</t>
+    <t>2022-06-26T08:16:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-26T08:16:20+00:00</t>
+    <t>2022-06-26T13:51:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-26T13:51:41+00:00</t>
+    <t>2022-06-26T21:50:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-26T21:50:55+00:00</t>
+    <t>2022-06-27T01:01:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-27T01:01:02+00:00</t>
+    <t>2022-06-27T01:36:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-27T01:36:25+00:00</t>
+    <t>2022-06-27T02:56:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-27T02:56:07+00:00</t>
+    <t>2022-06-27T06:28:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-27T06:28:37+00:00</t>
+    <t>2022-06-27T09:20:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-27T09:20:01+00:00</t>
+    <t>2022-06-27T10:19:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-27T10:19:40+00:00</t>
+    <t>2022-06-27T12:59:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-27T12:59:10+00:00</t>
+    <t>2022-06-27T22:33:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-27T22:33:31+00:00</t>
+    <t>2022-06-28T04:43:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T04:43:28+00:00</t>
+    <t>2022-06-28T06:25:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
+++ b/CodeSystem-jami-codeSystem-ePreBasicUsageMethod-OneDigit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T06:25:36+00:00</t>
+    <t>2022-06-29T08:26:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
